--- a/company.xlsx
+++ b/company.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kebensteiner/Documents/code/user-gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC6B2B-4296-3E4B-B5E0-02EF00F6CFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D082A23-4854-3D44-97D2-1E1DF27BEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="3960" windowWidth="31140" windowHeight="19160" xr2:uid="{55A7A45F-7863-C545-B5C2-DC42575BE7A1}"/>
+    <workbookView xWindow="2760" yWindow="4720" windowWidth="31140" windowHeight="19160" xr2:uid="{55A7A45F-7863-C545-B5C2-DC42575BE7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="branches" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Director</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Trainee</t>
   </si>
   <si>
-    <t>Security</t>
-  </si>
-  <si>
     <t>Chief</t>
   </si>
   <si>
@@ -71,26 +68,20 @@
     <t>Operations</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>Finance</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Revenue</t>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Information  &amp; Technology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +92,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,12 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,59 +447,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6282AA7E-C7B8-C544-82FE-8522839D4522}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,14 +513,14 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
